--- a/EVENTOS_SIG.xlsx
+++ b/EVENTOS_SIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_sig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3352BF21-455C-4777-ABA7-B9DDB8BB4D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C117B51-96BA-44DD-9FCB-F6540E27F830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{854C51BB-ABB4-4559-AF23-9664A041E365}"/>
   </bookViews>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -386,6 +386,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35628C08-068F-4430-8979-4E773C0F039E}">
-  <dimension ref="E4:O34"/>
+  <dimension ref="E4:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,7 +743,7 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:15">
+    <row r="4" spans="5:19">
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +776,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="5:15">
+    <row r="5" spans="5:19">
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
@@ -799,8 +800,10 @@
         <v>11</v>
       </c>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="5:15">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="5:19">
       <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
@@ -824,8 +827,10 @@
         <v>11</v>
       </c>
       <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="5:15">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="5:19">
       <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
@@ -849,8 +854,10 @@
         <v>11</v>
       </c>
       <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="5:15">
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="5:19">
       <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
@@ -874,8 +881,10 @@
         <v>11</v>
       </c>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="5:15">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="5:19">
       <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
@@ -899,8 +908,10 @@
         <v>11</v>
       </c>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="5:15">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="5:19">
       <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
@@ -924,8 +935,10 @@
         <v>11</v>
       </c>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="5:15">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="5:19">
       <c r="E11" s="12" t="s">
         <v>30</v>
       </c>
@@ -949,8 +962,10 @@
         <v>11</v>
       </c>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="5:15">
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="5:19">
       <c r="E12" s="12" t="s">
         <v>32</v>
       </c>
@@ -974,8 +989,10 @@
         <v>11</v>
       </c>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="5:15">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" spans="5:19">
       <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
@@ -999,8 +1016,10 @@
         <v>11</v>
       </c>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="5:15">
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" spans="5:19">
       <c r="E14" s="12" t="s">
         <v>37</v>
       </c>
@@ -1024,8 +1043,10 @@
         <v>11</v>
       </c>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="5:15">
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" spans="5:19">
       <c r="E15" s="12" t="s">
         <v>39</v>
       </c>
@@ -1049,8 +1070,10 @@
         <v>11</v>
       </c>
       <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="5:15">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" spans="5:19">
       <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
@@ -1074,8 +1097,10 @@
         <v>11</v>
       </c>
       <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="5:15">
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="5:19">
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
@@ -1099,8 +1124,10 @@
         <v>11</v>
       </c>
       <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="5:15">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="5:19">
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
@@ -1124,8 +1151,10 @@
         <v>11</v>
       </c>
       <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="5:15">
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="5:19">
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
@@ -1149,8 +1178,10 @@
         <v>11</v>
       </c>
       <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="5:15">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" spans="5:19">
       <c r="E20" s="12" t="s">
         <v>50</v>
       </c>
@@ -1174,8 +1205,10 @@
         <v>11</v>
       </c>
       <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="5:15">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" spans="5:19">
       <c r="E21" s="12" t="s">
         <v>52</v>
       </c>
@@ -1199,8 +1232,10 @@
         <v>11</v>
       </c>
       <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="5:15">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="5:19">
       <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
@@ -1224,8 +1259,10 @@
         <v>11</v>
       </c>
       <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="5:15">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="5:19">
       <c r="E23" s="12" t="s">
         <v>56</v>
       </c>
@@ -1249,8 +1286,10 @@
         <v>11</v>
       </c>
       <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="5:15">
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="5:19">
       <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
@@ -1274,8 +1313,10 @@
         <v>11</v>
       </c>
       <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="5:15">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="5:19">
       <c r="E25" s="12" t="s">
         <v>60</v>
       </c>
@@ -1299,8 +1340,10 @@
         <v>11</v>
       </c>
       <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="5:15">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="5:19">
       <c r="E26" s="12" t="s">
         <v>63</v>
       </c>
@@ -1324,8 +1367,10 @@
         <v>11</v>
       </c>
       <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="5:15">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="5:19">
       <c r="E27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1349,8 +1394,10 @@
         <v>11</v>
       </c>
       <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="5:15">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="5:19">
       <c r="E28" s="12" t="s">
         <v>67</v>
       </c>
@@ -1375,7 +1422,7 @@
       </c>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="5:15">
+    <row r="29" spans="5:19">
       <c r="E29" s="12" t="s">
         <v>69</v>
       </c>
@@ -1400,7 +1447,7 @@
       </c>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="5:15">
+    <row r="30" spans="5:19">
       <c r="E30" s="12" t="s">
         <v>71</v>
       </c>
@@ -1425,7 +1472,7 @@
       </c>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="5:15">
+    <row r="31" spans="5:19">
       <c r="E31" s="12" t="s">
         <v>72</v>
       </c>
@@ -1450,7 +1497,7 @@
       </c>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="5:15">
+    <row r="32" spans="5:19">
       <c r="E32" s="12" t="s">
         <v>75</v>
       </c>
